--- a/Internship_Search.xlsx
+++ b/Internship_Search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\internship-search-log-augustosplett\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B5B7D8-31C5-477C-9C9E-5AC5225F9E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC50986-9B37-448C-9D13-BE91C71B7CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12855" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Company Name</t>
   </si>
@@ -139,6 +139,48 @@
   </si>
   <si>
     <t>https://ca.indeed.com/rc/clk?jk=f4331cfef9b85d9b&amp;bb=FiEnwVt6ityTI7xeoewqEwX8hM1Mo3dJpDSzl8dHxBdNMPWS0EJ4TwQF-nLa2rpIE6_KCMuvej2Adevv_y_sEipJGo9PCNCxe2SC8baRzp0kFxUgF_jDPIZmS3x-fiSS&amp;xkcb=SoBP67M37Bv3j9QB3Z0MbzkdCdPP&amp;fccid=e66b3d356c96d114&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Desjardins Group (French: Mouvement Desjardins) is a Canadian financial service cooperative and the largest federation of credit unions (French: caisses populaires) in North America. It was founded in 1900 in Lévis, Quebec by Alphonse Desjardins.[2] While its legal headquarters remains in Lévis, most of the executive management, including the CEO, is based in Montreal.[3]
+As of 2017, Desjardins Group consists of 293 local credit unions operating 1,032 points of service and serving more than seven million members and clients, mostly in the provinces of Quebec and Ontario.[4] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Société Générale S.A. (French: [sɔsjete ʒeneʁal]), colloquially known in English speaking countries as SocGen (French: [sɔk ʒɛn]),[3] is a French-based multinational financial services company founded in 1864, registered in downtown Paris and headquartered nearby in La Défense.
+Société Générale is France's third largest bank by total assets after BNP Paribas and Crédit Agricole.[4] It is also the sixth largest bank in Europe and the world's eighteenth.[4] It is considered to be a systemically important bank by the Financial Stability Board. It has been designated as a Significant Institution since the entry into force of European Banking Supervision in late 2014, and as a consequence is directly supervised by the European Central Bank.[5][6]
+From 1966 to 2003 it was known as one of the Trois Vieilles ("Old Three") major French commercial banks, along with Banque Nationale de Paris (from 2000 BNP Paribas) and Crédit Lyonnais. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matrox Graphics, Inc. is a producer of video card components and equipment for personal computers and workstations. Based in Dorval, Quebec, Canada, it was founded in 1976 by Lorne Trottier and Branko Matić. The name is derived from "Ma" in Matić and "Tro" in Trottier.[2] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Caisse de dépôt et placement du Québec (CDPQ) est un investisseur institutionnel gérant notamment le régime de rentes du Québec et plusieurs autres régimes de retraite et d’assurances publics et parapublics du Québec.
+Elle a été créée par le gouvernement de Jean Lesage le 15 juillet 1965 par une loi du Parlement du Québec. Il s'agit du deuxième plus important fonds de pension au Canada, après le Régime de pensions du Canada1. Au 30 juin 2023, la CDPQ gère un actif net de 434 milliards de dollars canadiens investi au Canada et à l’étranger2. Son siège social est situé à Québec, dans l'Édifice Price et le bureau d'affaires principal est situé à Montréal, dans l'Édifice Jacques-Parizeau. </t>
+  </si>
+  <si>
+    <t>A cooperative platform to bring together Canada's restaurants, couriers and food lovers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAMGOLD is an intermediate gold producer and developer based in Canada with operating mines in North America and West Africa. The Company has commenced production at the large-scale, long life Côté Gold Mine in partnership with Sumitomo Metal Mining Co. Ltd., which is expected to be among the largest gold mines in Canada. In addition, the Company has an established portfolio of early stage and advanced exploration projects within high potential mining districts. IAMGOLD employs approximately 3,600 people and is committed to maintaining its culture of accountable mining through high standards of Environmental, Social and Governance practices, including its commitment to Zero Harm®, in every aspect of its business. IAMGOLD is listed on the New York Stock Exchange (NYSE:IAG) and the Toronto Stock Exchange (TSX:IMG) and is one of the companies on the Jantzi Social Index, a socially screened market capitalization-weighted consisting of companies which pass a set of broadly based environmental, social and governance rating criteria. </t>
+  </si>
+  <si>
+    <t>Intact Financial Corporation is a Canadian multinational property and casualty insurance company. Originally established in 1809 as the Halifax Fire Insurance Association, it was later acquired by Nationale-Nederlanden; from 1993 to 2009, it was a subsidiary of the Dutch multinational ING Group under the name ING Canada. Intact Financial directly underwrites insurance through its subsidiary companies Intact Insurance and Belair Insurance (operating as Belairdirect), as well as operating additional brokerage, insurance service, and damage restoration subsidiaries. As of 2017, Intact was the largest provider of property and casualty insurance in Canada by annual premiums.
+The company has over 16,000 employees and insures more than five million individuals and businesses through its insurance subsidiaries. In the J.D. Power 2015 Canadian Home Insurance Satisfaction Study, belairdirect was ranked highest in the Atlantic/Ontario region with a score of 799 and in the Quebec region with a score of 814 and Intact Insurance ranked third with a score of 791.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caterpillar Inc., also known as Cat, is an American construction, mining and other engineering equipment manufacturer.[6] The company is the world's largest manufacturer of construction equipment.[3][7][8] In 2018, Caterpillar was ranked number 73 on the Fortune 500 list[9] and number 265 on the Global Fortune 500 list.[10] Caterpillar stock is a component of the Dow Jones Industrial Average.[11]
+Caterpillar Inc. traces its origins to the 1925 merger of the Holt Manufacturing Company and the C. L. Best Tractor Company, creating a new entity, California-based Caterpillar Tractor Company.[12] In 1986, the company reorganized itself as a Delaware corporation under the current name, Caterpillar Inc. It announced in January 2017 that over the course of that year, it would relocate its headquarters from Peoria, Illinois, to Deerfield, Illinois, scrapping plans from 2015 of building an $800 million new headquarters complex in downtown Peoria.[13][14] Its headquarters are located in Irving, Texas, since 2022.[15][16]
+The company also licenses and markets a line of clothing and workwear boots under its Cat / Caterpillar name.[17][18] Additionally, the company licenses the Cat phone brand of toughened mobile phones and rugged smartphones since 2012.[19] Caterpillar machinery and other company-branded products are recognizable by their trademark "Caterpillar Yellow" livery and the "CAT" logo.[20] </t>
+  </si>
+  <si>
+    <t>Workland is a company that specializes in personalized recruitment technologies, solutions and services. After spending many years recruiting and co-developing technologies in partnership with its customers from both the private and public sector, Workland has developed unique expertise in both technologies and services.</t>
+  </si>
+  <si>
+    <t>The art gallery of old Montreal presents local artists from Montreal, focused on street art paintings for sale and contemporary art as well as interior and exterior murals. Our contemporary art gallery in Saint-Paul has been open since 2020 and positions itself as a committed art gallery with works driven by a political will. From abstract to surrealism via pop culture, the paintings represent the spectrum of urban art. The Quebec painters of our gallery of art in old Montreal contrasts with the usually older art galleries of Saint-Paul. We display the pioneers of street art and have at heart the local Quebec artists who create our murals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Notre mission est de remédier à la disparité économique chronique dans les communautés d'ascendance africaine. Grâce à de nouvelles technologies et à des initiatives innovantes, nous visons à favoriser des modèles durables de prospérité pour les enjeux particuliers qui touchent spécifiquement l'aspect socio-économique de nos communautés. Ensemble, en travaillant ensemble, nous nous efforçons de nous connecter pour atteindre un objectif: UP - Unir et Prospérer.  
+Orijin est une organisation à but non lucratif dédiée au développement économique des personnes d'ascendance africaine ainsi qu'au renforcement de leur rôle économique, financier et social grâce à la technologie et à de nouveaux modèles d'acquisition et de distribution de richesse. Orijin cherche à lutter contre les inégalités économiques chroniques dans les communautés d'ascendance africaine. Nous voulons encourager les personnes ciblées à investir dans leur santé économique en achetant et en consommant dans des entreprises d'ascendance africaine.</t>
   </si>
 </sst>
 </file>
@@ -232,7 +274,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8378327F-677A-482F-ADA7-0B01547DCBB9}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8378327F-677A-482F-ADA7-0B01547DCBB9}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E12" xr:uid="{8378327F-677A-482F-ADA7-0B01547DCBB9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -241,11 +283,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C4B65219-A5EC-449C-A66B-90D043A36744}" name="Company Name" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{B28E6B72-D0BB-4CB2-8517-5769A5BE30F8}" name="About the Company" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{02D99432-F306-41AD-BD4A-43F765A6C3D3}" name="Position" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{7CC27DCD-2695-448C-BA28-EBB43B353BFD}" name="URL" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{2922B726-4E01-4B0C-8C9B-85716BB16084}" name="Possible Point of Contact" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C4B65219-A5EC-449C-A66B-90D043A36744}" name="Company Name" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{B28E6B72-D0BB-4CB2-8517-5769A5BE30F8}" name="About the Company" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{02D99432-F306-41AD-BD4A-43F765A6C3D3}" name="Position" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{7CC27DCD-2695-448C-BA28-EBB43B353BFD}" name="URL" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{2922B726-4E01-4B0C-8C9B-85716BB16084}" name="Possible Point of Contact" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -516,20 +558,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="17.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.62890625" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.3671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="79" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5234375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,10 +589,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -557,10 +603,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" ht="288" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -568,10 +617,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
@@ -579,9 +631,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -594,6 +649,9 @@
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
@@ -601,10 +659,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" ht="288" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
@@ -612,10 +673,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
@@ -623,10 +687,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
@@ -634,10 +701,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
@@ -645,10 +715,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
@@ -656,9 +729,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" ht="331.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>35</v>

--- a/Internship_Search.xlsx
+++ b/Internship_Search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\internship-search-log-augustosplett\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC50986-9B37-448C-9D13-BE91C71B7CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545F5511-9DDA-47C5-BDAA-7055D44DD9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Company Name</t>
   </si>
@@ -181,6 +181,176 @@
     <t xml:space="preserve">
 Notre mission est de remédier à la disparité économique chronique dans les communautés d'ascendance africaine. Grâce à de nouvelles technologies et à des initiatives innovantes, nous visons à favoriser des modèles durables de prospérité pour les enjeux particuliers qui touchent spécifiquement l'aspect socio-économique de nos communautés. Ensemble, en travaillant ensemble, nous nous efforçons de nous connecter pour atteindre un objectif: UP - Unir et Prospérer.  
 Orijin est une organisation à but non lucratif dédiée au développement économique des personnes d'ascendance africaine ainsi qu'au renforcement de leur rôle économique, financier et social grâce à la technologie et à de nouveaux modèles d'acquisition et de distribution de richesse. Orijin cherche à lutter contre les inégalités économiques chroniques dans les communautés d'ascendance africaine. Nous voulons encourager les personnes ciblées à investir dans leur santé économique en achetant et en consommant dans des entreprises d'ascendance africaine.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/4023605518/?alternateChannel=search&amp;refId=FVQB4xANwWuoP2KQ7WFZoA%3D%3D&amp;trackingId=hz84EXc%2BImQ0hDTUxHUGow%3D%3D&amp;trk=d_flagship3_search_srp_jobs&amp;lipi=urn%3Ali%3Apage%3Ad_flagship3_search_srp_jobs%3Ba2WEFZNlSraio%2Bwhqg5wHQ%3D%3D</t>
+  </si>
+  <si>
+    <t>CGI</t>
+  </si>
+  <si>
+    <t>Hiver 2025 Stage Coopératif Développeur (4 mois)</t>
+  </si>
+  <si>
+    <t>Rio Tinto</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/4011260643/?alternateChannel=search&amp;refId=FVQB4xANwWuoP2KQ7WFZoA%3D%3D&amp;trackingId=N43vfvyWg4n2J%2BhCnp%2FnDg%3D%3D&amp;trk=d_flagship3_search_srp_jobs&amp;lipi=urn%3Ali%3Apage%3Ad_flagship3_search_srp_jobs%3Ba2WEFZNlSraio%2Bwhqg5wHQ%3D%3D</t>
+  </si>
+  <si>
+    <t>Stage | Informatique | Hiver</t>
+  </si>
+  <si>
+    <t>Internship, Software development - Winter 2025</t>
+  </si>
+  <si>
+    <t>BBA Consultants</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/4029292110/?alternateChannel=search&amp;refId=FVQB4xANwWuoP2KQ7WFZoA%3D%3D&amp;trackingId=lbJxjb7SkxsKCR4SpMpw6Q%3D%3D&amp;trk=d_flagship3_search_srp_jobs&amp;lipi=urn%3Ali%3Apage%3Ad_flagship3_search_srp_jobs%3Ba2WEFZNlSraio%2Bwhqg5wHQ%3D%3D</t>
+  </si>
+  <si>
+    <t>Software Developer Intern 12 months - Winter 2025</t>
+  </si>
+  <si>
+    <t>Dayforce</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/4017954841/?eBP=CwEAAAGSD3xQVQuvbJMB5MvLgQ-ic175z771HSZwQRHoemMN5DomBAZs9ifwQPlQKeqoI_8cQXWtTDGAQ38OgnNPVZgtqMGgHTJRhB3JEFi99LXO0vHGEBMXs0Fn4tlFGzK5N65-Tsmb-t4Ypvhs3ZL8ThpG2wTpqQd-sR7Z-z3yG7xZ8Dagx9VtObznMPJot1E2iEF-XBkezhIH4do16nyP6x-uFBaamF3GD0tM8KJzcxM5np5fNSvPZBgkiNfy8YNQWPItL14l-QovCCTC6LSzL3wkMg7WaEKuXpkhj37kKnQXGGydM-bQCKSXELx1R22ns0jytu9PZ-P5VAs00SEfioC2tmOaboT_pqhchS1U1SHOpMBnf2vYYb3b4jh-SA8RUDhH0wCqMlXHt8EckVDwXqknQZSMLiT3ndMjTFBKkzVCLU5YTilWVAe4csIpV0170o2wzV1lrsTtI34Mf_Ofz5rWadxrrNHbPcb1Lt1MBCoWSWvo617gsjSNkT85ixgJvXqAsNYC7w&amp;refId=FVQB4xANwWuoP2KQ7WFZoA%3D%3D&amp;trackingId=YXBs7pYNtC7zylx6Of1HsQ%3D%3D&amp;trk=flagship3_search_srp_jobs&amp;lipi=urn%3Ali%3Apage%3Ad_flagship3_search_srp_jobs%3Ba2WEFZNlSraio%2Bwhqg5wHQ%3D%3D&amp;lici=YXBs7pYNtC7zylx6Of1HsQ%3D%3D</t>
+  </si>
+  <si>
+    <t>LMKcomputerservices</t>
+  </si>
+  <si>
+    <t>Summer Intern</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3968889370/?eBP=CwEAAAGSD3xU6xBOnqTEAwIxs6rf5l08yTrxk6rbNOIL0Grl_M12_3iNnACLPLV0-qPOVM73tXEkIM-ABy1O-NvNHywk3kj8Pf6OGhC1tTZnz5iCEz2T12sKm7bmLR74I1v9lFg2v5GhxsOH0dVSxv5DFdOtJkkdx2JgpINsA7dHYG0hqyjPHxtdOzKLC5l9K269qsx-EouP_--GYbGwKsfhh6elRGMjsCoafo3ErRxdn30-mbNxePVgyfrwWXgczoIdcZSDI0j12ljgmfQn57TiM5scz7-Lr8GEv8K4pl7IMfEHHUf5tDYB8LwVwMP3vr4IfR1YRqHWIokDF4BuxFY0qvSyHbwrL8wpufYF4dvEKHYuD7PmAUJv9TMjJIljykOtrDTJqQoYLTEEAzfLvPMzu03dAiSayaeZuq0jakZPpDFmC8tyKo9bFJS3sOAqzpcW2Cz77z44VYoQuS9rp6B4LCcR7C2O9N1J8JPXJZyitnQL74yARN4u7Qg&amp;refId=2c4ycX2NipWm3JBgcAQFsw%3D%3D&amp;trackingId=8rtNdOq7TgS%2BgZpqhmsYLw%3D%3D&amp;trk=flagship3_search_srp_jobs&amp;lipi=urn%3Ali%3Apage%3Ad_flagship3_search_srp_jobs%3Ba2WEFZNlSraio%2Bwhqg5wHQ%3D%3D&amp;lici=8rtNdOq7TgS%2BgZpqhmsYLw%3D%3D</t>
+  </si>
+  <si>
+    <t>Contactus@lmkcomputerservices.com</t>
+  </si>
+  <si>
+    <t>Marsh Early Career Program, Full-Time – Canada – 2025 New Graduates</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/4013767850/?eBP=CwEAAAGSD3xU60mXowN4giW9wqA9_YDTuzLJWsYMeGdp8jPR-MWyReLTTXHG0S3-BdpLw6beRrlmmbt4n4fxI-DKSOilz0jkXKxiAFZ89HXStCS14VQZCngFBASni5j5mWAetYqXokYLjTLWkApOCfYkuBNNOn0iogYN7MtEfU-PTUeNa7SWIR4kaWpPCe1EGrgCFjSswnABNIrnmLS64VcVc7ivHiToptKTtJspITDcfbOeMVlSYAXqNuUJPoZTkgL3qLoGxiGrgvTCQNQtB1K6PAVRC6SNrUnaHNHPj_jP0tk-u_2R-hR5CjuTZOlfwm9s4O4gcYSB-cGsqpjfcGZY5GdyabjZUmJ_VqKmlvQ2_O9suvgKW7jhpYRB189731GtX50UogfqCd_hvG8wFFFXLrh5ts5diM26DZ_gZ4WBL9E40yyyvGaz-eDuXO6yp5ITFCqqCBaA4SGPsMOHFJryPnwcKnLnB2AuWC8dkVLcxfpIZppZ83-nczED1H4Aci_okE1Z&amp;refId=2c4ycX2NipWm3JBgcAQFsw%3D%3D&amp;trackingId=gXI6cnV63yy%2FMIRCeJc01g%3D%3D&amp;trk=flagship3_search_srp_jobs&amp;lipi=urn%3Ali%3Apage%3Ad_flagship3_search_srp_jobs%3Ba2WEFZNlSraio%2Bwhqg5wHQ%3D%3D&amp;lici=gXI6cnV63yy%2FMIRCeJc01g%3D%3D</t>
+  </si>
+  <si>
+    <t>Marsh</t>
+  </si>
+  <si>
+    <t>Route Optimization - Software Development Intern</t>
+  </si>
+  <si>
+    <t>Intelcom | Dragonfly</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/4029277787/?eBP=CwEAAAGSD3xU7MLyLO97JnCKy3hLKPQ6s6oc5kLKYX0SKyU_4rwBAXef-c9rHKUwRBgVnS0u6-mFcC3lFg6NEJx4SVMk694kQn8RSkYgro7G4J6keO9N5_h6znXiSlTJjvcY9WDXKcUrpuw78XqeBieWNNOt4p8PUQM-PtPFDDla9ZosSgrbPsM1K2-AuCOxGLtdGVNO1rhqQH5Gcr2bnWsKUcLhrtvUbvnARnB7IvVEQ5qYvFblnFuhrF7sAIfpyVcXkK-olztiDhWtmYb8lf0XRuJwXnYwDUuc3BE84gAJmMP0myh1ZEJSiO2et8oNf8evfK8bCZub5pyREHvizI0HvYyfSlbcAI9HzMMut2RTvKg6jnxa37w7_6-CGcisKmwaL2j-K3SdoiwyR62Pw4d55rqtnRhgHdXlOT0hM22lesAyy7hFNlk2XoT3KClZBwn5BZ2AouII_fJUk1aS76VEXM65Dcng9XHww54RY8c2MMeC7nIi-rvlYlP_Zpx9-REj9pCpqaQ&amp;refId=2c4ycX2NipWm3JBgcAQFsw%3D%3D&amp;trackingId=ShvrK4yY4e54y25IH1kitg%3D%3D&amp;trk=flagship3_search_srp_jobs&amp;lipi=urn%3Ali%3Apage%3Ad_flagship3_search_srp_jobs%3Ba2WEFZNlSraio%2Bwhqg5wHQ%3D%3D&amp;lici=ShvrK4yY4e54y25IH1kitg%3D%3D</t>
+  </si>
+  <si>
+    <t>Intern - Product Engineering (Summer 2025 - 16 months)</t>
+  </si>
+  <si>
+    <t>Ontario Teachers'​ Pension Plan</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/4002964794/?eBP=CwEAAAGSD39bF4DgV2OgvVEThJ7SP589K7m6enI0WHhwJf9QCyynygOLWMS1a9PhagUNP9AAttBjDixyweQl_tbvL-YcBGEwbQIkTLb7biRa8zyrVe3cL0Ek-j1x_HYaiiY1K0OmMrzmIaQgnxiNGpJMPaIabHiKU7DpJYfHzM24-DSYJRj-rCwwhKnSJVHSBBHXgcWPUx5DrPHH6fNJQhhgH-ss8wHDBytZ8sAZ9R-JwGGj05yx7qc6z0jQq5tAvI1VXquSrDLMRG7v05_6g2XCJNXJRWb6lo9iwxH3KG9jckGVllAai1j48xGvcojqazg94cfVsvdbtH2MSKuw7hU19N3d1zEI3agdT5DC1Iam9qS0GnDF72W7C26ecR-_4fo4IKzE21bdllklpdHhtaxdbOPwfiHFx2pJP0f6g_hosOv8uymyXTqxc4b32hSgPDR9JM2UA0Ein3xvn6mTzwApzFzq0OJnrl3UNEumGbLYmPlM-Nj_VRrZ3lAfBHHsYkZ1Xw65bU4&amp;refId=x1L8MwO%2FGZeuchFYZ6nslQ%3D%3D&amp;trackingId=97OJq1BMwINWN6qAm5AykQ%3D%3D&amp;trk=flagship3_search_srp_jobs&amp;lipi=urn%3Ali%3Apage%3Ad_flagship3_search_srp_jobs%3Ba2WEFZNlSraio%2Bwhqg5wHQ%3D%3D&amp;lici=97OJq1BMwINWN6qAm5AykQ%3D%3D</t>
+  </si>
+  <si>
+    <t>Software Developer Intern, iOS</t>
+  </si>
+  <si>
+    <t>Robinhood</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/4005458822/?eBP=CwEAAAGSD39bF-4psO57GEbHBcBa6eRZEEFFg-s9xjS5xkjMErwXB-whdnxByNkPJNFJy94OXQiC26p6-e6_LQSK1gLDvab6HLPwmxTJ0QYHxi2bAx9M2QtMuCoDAjeex6k4hPfcBrNujxMC5CfiIuNLLUlaM_KIVS9Pu1kTjTXY06flo8KElz9GUan7hh3WypGAHqfprDOA8-jtgDksFe1NcDqKZbaImWTsOg3LkAwQVgJ-vy2QXnCIAzx4u5HagW7dB0XYafOIgeXp3xaqHP0teYUtggW0QL4qo8QpfODZ_HquNUcpCvYr944Oq6ZrUHkNsst_6ocFD9na_9vX1450b0cM6vfgFPJhW5j1JMoZo7joQYvsA-wyY-YI20TBdPQLZj-zU3_DcR6-HjV_PVgkmUZa-HGudVjeeJHtI8uPJAW8HxjMlGCxiZ-fMCaam1nUZZg9hztSIkZoV2O-NSX90yJTQR_ywYDqmyeGPd6z7YrRjfZnHtrX7h0cNAnm2nX9asEktF8&amp;refId=x1L8MwO%2FGZeuchFYZ6nslQ%3D%3D&amp;trackingId=XYjSuD5x8kX0PSkGUlBQ2w%3D%3D&amp;trk=flagship3_search_srp_jobs&amp;lipi=urn%3Ali%3Apage%3Ad_flagship3_search_srp_jobs%3Ba2WEFZNlSraio%2Bwhqg5wHQ%3D%3D&amp;lici=XYjSuD5x8kX0PSkGUlBQ2w%3D%3D</t>
+  </si>
+  <si>
+    <t>Robinhood was founded on a simple idea—that our financial markets should be accessible to all. In an industry where barriers have prevailed for too long, this hasn’t always been easy. We’re leveling the playing field by making trading more intuitive, more affordable, and more inclusive to ensure that everyone, regardless of wealth or industry knowledge, feels empowered to participate in the financial system.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mikeflynn6/overlay/about-this-profile/?lipi=urn%3Ali%3Apage%3Ad_flagship3_profile_view_base%3BXBFvUDxoRPKQOb4QRGb8zA%3D%3D</t>
+  </si>
+  <si>
+    <t>Ontario Teachers' Pension Plan Board (Ontario Teachers') is a global investor with net assets of $247.5 billion as at December 31, 2023. We invest in more than 50 countries in a broad array of assets including public and private equities, fixed income, credit, commodities, natural resources, infrastructure, real estate and venture growth to deliver retirement income for 340,000 working members and pensioners.
+Our more than 450 investment professionals operate in key financial centres around the world and bring deep expertise in a broad range of sectors and industries. We are a fully funded defined benefit pension plan and have earned an annual total-fund net return of 9.3% since the plan's founding in 1990. At Ontario Teachers', we don't just invest to make a return, we invest to shape a better future for the teachers we serve, the businesses we back, and the world we live in.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/zara-jiwa?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB7RJ9IBxxanGTYJihJlMv2WF2stUWU7f7g&amp;lipi=urn%3Ali%3Apage%3Acompanies_company_people_index%3B9e03669d-63e8-4b46-b732-0445eb1a9e50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intelcom is a leading last-mile carrier in the e-commerce sector. Our teams across Canada as well as our network of independent contractors contribute to Intelcom’s daily operations. Through constant innovation and a unique approach to logistics technology, Intelcom is focused on what’s ahead to continue delivering new levels of operational efficiency. </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/camille-bossis-aa1b85165?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACeBw9kBq7vj5UuVyJq0gZfEb8qqT-QAQDY&amp;lipi=urn%3Ali%3Apage%3Acompanies_company_people_index%3B7eada1f9-3ef1-4ee1-8bed-dca7222e8410</t>
+  </si>
+  <si>
+    <t>We help our clients and colleagues grow — and our communities thrive — by protecting and promoting Possibility. We seek better ways to manage risk and define more effective paths to the right outcome. We go beyond risk to rewards for our clients, our company, our colleagues, and the communities in which we serve.
+Marsh, a business of Marsh McLennan﻿﻿﻿﻿﻿﻿﻿﻿﻿﻿﻿﻿﻿﻿﻿﻿﻿ (NYSE: MMC), is the world’s top insurance broker and risk advisor. Marsh McLennan is ﻿﻿﻿﻿a global leader in risk, strategy and people, advising clients in 130 countries across four businesses: Marsh, Guy Carpenter, Mercer﻿﻿﻿﻿﻿﻿﻿﻿﻿﻿﻿﻿﻿﻿﻿﻿﻿ and Oliver Wyman﻿﻿﻿﻿﻿﻿﻿﻿﻿﻿﻿﻿﻿﻿﻿﻿﻿. With annual revenue of $23 billion and more than 85,000 colleagues, Marsh McLennan helps build the confidence to thrive through the power of perspective.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/okuhle-ndamase-0659ab104/</t>
+  </si>
+  <si>
+    <t>Dayforce makes work life better. Everything we do as a global leader in HCM technology is focused on improving work for thousands of customers and millions of employees around the world. Our single, global people platform for HR, payroll, talent, workforce management, and benefits equips Dayforce customers to unlock their full workforce potential and operate with confidence. To learn how Dayforce helps create quantifiable value for organizations of all sizes and industries, visit dayforce.com.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ramijha-puspanathan/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/recruteusemcp/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/rutea-filomin-66554987/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/emma-osmancevic-268422197/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/lea-mcmullan/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sofia-nikolakakis-b61318117/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kellysilva/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/laura-anghel-she-her-elle-75ab50a1/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aliane-trevizan/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/vitaly-kharitonov-b2b88358/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dorian-verdier/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/williamson-dulc%C3%A9-71983728/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Founded in 1976, CGI is among the largest IT and business consulting services firms in the world. We are insights-driven and outcomes-based to help accelerate returns on your investments. Across 21 industries in 400 locations worldwide, we provide comprehensive, scalable and sustainable IT and business consulting services that are informed globally and delivered locally.
+We value your opinions and welcome your comments and questions on our posts here on LinkedIn. Please keep a polite, professional and constructive tone. We remove comments containing objectionable language and derogatory views. We do not allow content that is unrelated to the subject, and we remove discriminatory and racist comments as well as spam and advertising. 
+Note that content on this page contains general information regarding CGI’s services and initiatives and should not be considered direct business advice. To engage in a discussion with one of our experts, please make a request through https://www.cgi.com/en/contact-us.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jahnavi-ponaganti-321638b6/</t>
+  </si>
+  <si>
+    <t>We're finding better ways to provide the materials the world needs. Iron ore for steel. Low carbon aluminium for electric cars and smartphones. Copper for wind turbines, electric cars and the pipes that bring water to our home. Borates that help crops grow and titanium for paint.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/farha-q-727a7b143/</t>
+  </si>
+  <si>
+    <t>We help companies with their challenges and transformation by relying on our sharp business acumen, extensive practical experience and vast technological curiosity. We use all our teams’ ingenuity to develop innovative, scalable and proven engineering strategies and solutions. As catalysts for change, we’re committed to supporting the industry in its transition to a sustainable, mutually beneficial future.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/elaine-jost/</t>
   </si>
 </sst>
 </file>
@@ -274,8 +444,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8378327F-677A-482F-ADA7-0B01547DCBB9}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E12" xr:uid="{8378327F-677A-482F-ADA7-0B01547DCBB9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8378327F-677A-482F-ADA7-0B01547DCBB9}" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E22" xr:uid="{8378327F-677A-482F-ADA7-0B01547DCBB9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -556,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -568,7 +738,7 @@
     <col min="2" max="2" width="47.62890625" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.3671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="79" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.3671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
@@ -602,6 +772,9 @@
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="288" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
@@ -616,6 +789,9 @@
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
@@ -630,6 +806,9 @@
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
@@ -644,6 +823,9 @@
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
@@ -658,6 +840,9 @@
       <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="288" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
@@ -672,6 +857,9 @@
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
@@ -686,6 +874,9 @@
       <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
@@ -700,6 +891,9 @@
       <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
@@ -714,6 +908,9 @@
       <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
@@ -728,6 +925,9 @@
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="331.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
@@ -741,6 +941,159 @@
       </c>
       <c r="D12" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="316.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="216" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="259.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -756,10 +1109,17 @@
     <hyperlink ref="D10" r:id="rId9" xr:uid="{486BF142-AF53-480B-BC91-4942E459E2C3}"/>
     <hyperlink ref="D11" r:id="rId10" display="https://ca.indeed.com/rc/clk?jk=631d0b2176d8d095&amp;bb=FiEnwVt6ityTI7xeoewqEx2jfU17_Sa6LyWsjrSD_Sg6064553qbGkfKw4dpnRdfGu8L6F0T8PLC_BVbOmivAe28EM55qwazslqUxfOdcwklwuBqrJxyIh3gbzhIpvcH&amp;xkcb=SoD767M37Bv3j9QB3Z0NbzkdCdPP&amp;fccid=7dec060b3996b0ad&amp;cmp=Loriginal.org&amp;ti=Stage+Frontend&amp;vjs=3" xr:uid="{2ADCCC9F-A59A-4293-9CD4-891D2D61270B}"/>
     <hyperlink ref="D12" r:id="rId11" xr:uid="{AC3FBE45-D129-48DD-84BD-5A16AF65B531}"/>
+    <hyperlink ref="D13" r:id="rId12" display="https://www.linkedin.com/jobs/view/4023605518/?alternateChannel=search&amp;refId=FVQB4xANwWuoP2KQ7WFZoA%3D%3D&amp;trackingId=hz84EXc%2BImQ0hDTUxHUGow%3D%3D&amp;trk=d_flagship3_search_srp_jobs&amp;lipi=urn%3Ali%3Apage%3Ad_flagship3_search_srp_jobs%3Ba2WEFZNlSraio%2Bwhqg5wHQ%3D%3D" xr:uid="{D25EB204-4202-42E9-A967-E018408FD7FB}"/>
+    <hyperlink ref="D14" r:id="rId13" display="https://www.linkedin.com/jobs/view/4011260643/?alternateChannel=search&amp;refId=FVQB4xANwWuoP2KQ7WFZoA%3D%3D&amp;trackingId=N43vfvyWg4n2J%2BhCnp%2FnDg%3D%3D&amp;trk=d_flagship3_search_srp_jobs&amp;lipi=urn%3Ali%3Apage%3Ad_flagship3_search_srp_jobs%3Ba2WEFZNlSraio%2Bwhqg5wHQ%3D%3D" xr:uid="{EB759231-A694-4125-8B40-B0DE027CA61A}"/>
+    <hyperlink ref="D15" r:id="rId14" display="https://www.linkedin.com/jobs/view/4029292110/?alternateChannel=search&amp;refId=FVQB4xANwWuoP2KQ7WFZoA%3D%3D&amp;trackingId=lbJxjb7SkxsKCR4SpMpw6Q%3D%3D&amp;trk=d_flagship3_search_srp_jobs&amp;lipi=urn%3Ali%3Apage%3Ad_flagship3_search_srp_jobs%3Ba2WEFZNlSraio%2Bwhqg5wHQ%3D%3D" xr:uid="{7374C04D-7CCB-4DAE-90B5-88EB291D925F}"/>
+    <hyperlink ref="E21" r:id="rId15" xr:uid="{E82A2148-C828-4E8B-A67B-53E5FE670080}"/>
+    <hyperlink ref="E20" r:id="rId16" xr:uid="{919273D4-0334-4A57-B33E-C3F6E00DA5D8}"/>
+    <hyperlink ref="E19" r:id="rId17" xr:uid="{EF518949-6956-45D7-B3EF-57FFA462C0B6}"/>
+    <hyperlink ref="E9" r:id="rId18" xr:uid="{E2A913F6-FFBC-4A2B-ADD5-5EEE0DA8944B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>